--- a/Individual/data/Arzt.xlsx
+++ b/Individual/data/Arzt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Doktor\Dissertation\Paper 1\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Doktor\Dissertation\Paper 1\Code\columngeneration\Individual\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961CCB97-7614-422C-9BC2-E3E8673F1565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA81C8E3-23BB-488C-94AA-F73F08BF90DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arzt" sheetId="1" r:id="rId1"/>
@@ -516,48 +516,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,9 +573,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -613,7 +613,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -719,7 +719,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -861,7 +861,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -872,10 +872,10 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/Individual/data/Arzt.xlsx
+++ b/Individual/data/Arzt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Doktor\Dissertation\Paper 1\Code\columngeneration\Individual\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA81C8E3-23BB-488C-94AA-F73F08BF90DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E89EFD-3CD8-4A35-A59B-8EA652BB0A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="23040" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arzt" sheetId="1" r:id="rId1"/>
@@ -869,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,6 +932,236 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Individual/data/Arzt.xlsx
+++ b/Individual/data/Arzt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Doktor\Dissertation\Paper 1\Code\columngeneration\Individual\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E89EFD-3CD8-4A35-A59B-8EA652BB0A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B54A7-FAF4-42D9-91E6-EF1C8728B6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="23040" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arzt" sheetId="1" r:id="rId1"/>
@@ -869,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,236 +932,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
